--- a/Design/DataTable/enum.xlsx
+++ b/Design/DataTable/enum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DateTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B081591-555D-4FF4-8848-8DE99802E370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB2887-F449-4A1A-AB57-388274E16E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0FAB50C-F141-41DC-A17A-D9B0287B4143}"/>
+    <workbookView xWindow="4290" yWindow="1830" windowWidth="21600" windowHeight="11355" xr2:uid="{D0FAB50C-F141-41DC-A17A-D9B0287B4143}"/>
   </bookViews>
   <sheets>
     <sheet name="@AttackType" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>INDEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,14 @@
   </si>
   <si>
     <t>범위 공격형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupportAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC0FF1C-F93B-4042-B9B8-0631CE9B8B49}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -562,6 +570,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/DataTable/enum.xlsx
+++ b/Design/DataTable/enum.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB2887-F449-4A1A-AB57-388274E16E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB17101D-36A1-44BC-969A-33642647D1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="1830" windowWidth="21600" windowHeight="11355" xr2:uid="{D0FAB50C-F141-41DC-A17A-D9B0287B4143}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0FAB50C-F141-41DC-A17A-D9B0287B4143}"/>
   </bookViews>
   <sheets>
-    <sheet name="@AttackType" sheetId="1" r:id="rId1"/>
+    <sheet name="@EAttackType" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,13 +36,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>즉발형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 공격형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -50,15 +74,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NomalAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectileAttack</t>
+    <t>근접 공격형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 공격형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerNomalAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerProjectileAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerRangeAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupportAttack</t>
+  </si>
+  <si>
+    <t>MeleeAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안씀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,27 +113,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즉발형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위 공격형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SupportAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원형</t>
+    <t>TowerSupportAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 지원형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,6 +199,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,81 +538,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC0FF1C-F93B-4042-B9B8-0631CE9B8B49}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/enum.xlsx
+++ b/Design/DataTable/enum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB17101D-36A1-44BC-969A-33642647D1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F7DA0C-3FDE-4807-B723-6715B055E69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0FAB50C-F141-41DC-A17A-D9B0287B4143}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>즉발형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>근접 공격형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>안씀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,6 +110,18 @@
   </si>
   <si>
     <t>몬스터 지원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,9 +203,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,13 +542,13 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -556,10 +557,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -569,17 +570,19 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -587,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -598,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -609,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -620,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -631,10 +634,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -642,10 +645,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -653,10 +656,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
